--- a/medicine/Enfance/Rémi_sans_famille_(film)/Rémi_sans_famille_(film).xlsx
+++ b/medicine/Enfance/Rémi_sans_famille_(film)/Rémi_sans_famille_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9mi_sans_famille_(film)</t>
+          <t>Rémi_sans_famille_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rémi sans famille est une comédie dramatique française coécrite et réalisée par Antoine Blossier, sortie en 2018[1]. Il s’agit de l’adaptation du roman français Sans famille d'Hector Malot (1878). Le film, au Québec, porte le titre de Les Aventures de Rémi.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rémi sans famille est une comédie dramatique française coécrite et réalisée par Antoine Blossier, sortie en 2018. Il s’agit de l’adaptation du roman français Sans famille d'Hector Malot (1878). Le film, au Québec, porte le titre de Les Aventures de Rémi.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9mi_sans_famille_(film)</t>
+          <t>Rémi_sans_famille_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le début du film se passe dans un orphelinat, par une nuit d'orage. Les pensionnaires, effrayés, se sont regroupés autour d'un vieil homme qui leur conte son histoire.  Et cet homme, c'est Rémi.
 Rémi est un jeune garçon trouvé étant bébé. Il grandit avec sa mère adoptive heureux, mais le jour où le mari de celle-ci lui réclame de l'argent pour gagner un procès, il tente d'emmener Rémi à l'orphelinat, pour se débarrasser d'une bouche en trop à nourrir. C'est alors qu'en se cachant dans une taverne, Rémi est trouvé par un ancien violoniste jadis renommé qui se fait appeler maintenant Vitalis, et est un artiste de rue avec un singe, Joli-Coeur, et un chien, Capi.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9mi_sans_famille_(film)</t>
+          <t>Rémi_sans_famille_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données Unifrance
 Titre original : Rémi sans famille
@@ -568,7 +584,7 @@
 Genre : comédie dramatique
 Durée : 105 minutes
 Dates de sortie :
-France : 30 septembre 2018[1] (Festival Première) ; 12 décembre 2018 (sortie nationale)
+France : 30 septembre 2018 (Festival Première) ; 12 décembre 2018 (sortie nationale)
 Belgique, Suisse romande : 12 décembre 2018
 Québec : 8 février 2019</t>
         </is>
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9mi_sans_famille_(film)</t>
+          <t>Rémi_sans_famille_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Maleaume Paquin : Rémi, jeune
 Jacques Perrin : Rémi, âgé
@@ -628,7 +646,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9mi_sans_famille_(film)</t>
+          <t>Rémi_sans_famille_(film)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -648,16 +666,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Développement et genèse
-Antoine Blossier, qui a l’habitude de changer de genre cinématographique, a « envie de réaliser un film d'aventures qui s’ancre dans le patrimoine français tout en étant moderne » : son épouse lui conseille donc l’œuvre d’Hector Malot, en lui disant de le lire « sous un angle spielbergien »[2].
-Distribution des rôles
-En mars 2017, Daniel Auteuil est mentionné en tant qu’acteur engagé pour le film d’Antoine Blossier dans les médias lors de la recherche des figurants à Albi[3] : « L’idée de renouer avec un texte classique ; une grande histoire populaire, familiale et universelle me plaisait. L’exercice est  finalement assez rare. Il y avait de l’ambition dans ce projet, une promesse d’aventure »[2], explique-t-il. En avril 2017, Jacques Perrin, Virginie Ledoyen, Ludivine Sagnier et Jonathan Zaccaï rejoignent la distribution[4]. Maleaume Paquin est mentionné pour interpréter le rôle de Rémi[5], c’est « le quinzième enfant que j’ai rencontré au cours du casting et j’ai tout de suite eu un coup de cœur pour lui. Je m’attendais à une recherche longue, difficile, et j’ai été perturbé de l’avoir trouvé si vite. J’ai vu environ quatre cents autres enfants avant de me décider : je voulais être absolument sûr de mon choix. Serait-il capable de tenir physiquement durant les treize semaines que durerait le tournage ? Je l’ai fait revenir plusieurs fois en lui donnant des scènes différentes et de plus en plus difficiles à jouer. Il était super et j’ai compris qu’il était solide », raconte le réalisateur[2]. 
-Tournage
-Le 18 avril 2017, Antoine Blossier et son équipe commencent le tournage à Penne, Cordes-sur-Ciel, Castelnau-de-Montmiral, Albi, Toulouse, Castelnaudary  en région Occitanie et sur l’Aubrac pour son décor  (paysage, lacs, cascades, en particulier la cascade du Déroc)[6] avant de remonter, en mai, à Paris et au studio d'Épinay à Épinay-sur-Seine[7] jusqu’au 7 juillet 2017[8]. Les membres de toutes les équipes ont signé un contrat dans lequel ils se sont « engagés à ne rien dire sur le film », avoue l'un d'entre eux, et c’est évident que toutes demandes de reportage sur les lieux de tournage sont refusées afin de protéger décors et costumes avant la sortie du film[9].
-Les effets visuels ont lieu au studio Digital District[10].
-Musique
-Pour son film, Antoine Blossier souhaitait que la musique soit « symphonique et thématique, à l'image des grandes compositions françaises comme celles de Michel Legrand ou Vladimir Cosma, tout en s'imprégnant des sonorités de John Williams et de Danny Elfman ». Il compte sur Romaric Laurence, son compositeur fidèle de tous ses longs métrages[11]. Ce dernier a travaillé avec les femmes du Chœur de Radio France au studio de la Seine à Paris[12] et les Petits Chanteurs à la croix de bois pour se servir de leur voix d’ange dans le film[13].
-Lors d'une scène, le personnage interprété par Daniel Auteuil joue au violon un extrait du célèbre Concerto pour violon no 2 en mi mineur, opus 64 de Felix Mendelssohn.
+          <t>Développement et genèse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antoine Blossier, qui a l’habitude de changer de genre cinématographique, a « envie de réaliser un film d'aventures qui s’ancre dans le patrimoine français tout en étant moderne » : son épouse lui conseille donc l’œuvre d’Hector Malot, en lui disant de le lire « sous un angle spielbergien ».
 </t>
         </is>
       </c>
@@ -668,7 +683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R%C3%A9mi_sans_famille_(film)</t>
+          <t>Rémi_sans_famille_(film)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,18 +698,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Accueil</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Festivals et sorties
-Rémi sans famille est présenté le 30 septembre 2018 en avant-première au festival Première dans les cinémas Pathé et Gaumont[1]. Il est également sélectionné et présenté le 17 novembre 2018 au festival du film de Sarlat[14],[15]. En avril 2017, la sortie nationale a pour date le 28 septembre 2018[16]. Il repousse au 12 décembre 2018.
-Quant aux pays francophones, le film est prévu, comme en France, le 12 décembre 2018 en Belgique et en Suisse romande. Le 8 février 2019 au Québec.
-Critiques
-Pour CNews, c'est un « défi réussi » car « l'image est soignée, les paysages somptueux, la musique symphonique et le casting à la hauteur »[17]. Le Journal du dimanche estime que le film est une « adaptation ambitieuse » et un « joli conte de fées pour Noël » qui représente la « crème du cinéma français », avec « de magnifiques paysages, de beaux costumes, des effets visuels dignes d'une production américaine, des enfants qui jouent bien la comédie »[18]. Le Parisien juge le film « très prenant » car « joliment mis en scène », « habité par une musique envoûtante très présente » et tourné dans les « magnifiques paysages de l'Aubrac et du Tarn »[19]. Paris Match résume sa critique de la façon suivante : « Amour, tendresse, émotion et animaux rigolos (Joli-cœur, le petit singe !) : tous les ingrédients du roman sont dans ce film qui ne fait heureusement pas l'impasse sur la noirceur du texte d'Hector Malot[20]. » 
-Dans L'Express, Christophe Carrière est nettement moins convaincu : « Cette fois, le périple tragique et initiatique de Rémi, abandonné à sa naissance, recueilli par un couple de miséreux avant d'être vendu à un vieux saltimbanque affectueux, est traité de la manière la plus mièvre qui soit[21]. »
-Box-office</t>
+          <t>Distribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 2017, Daniel Auteuil est mentionné en tant qu’acteur engagé pour le film d’Antoine Blossier dans les médias lors de la recherche des figurants à Albi : « L’idée de renouer avec un texte classique ; une grande histoire populaire, familiale et universelle me plaisait. L’exercice est  finalement assez rare. Il y avait de l’ambition dans ce projet, une promesse d’aventure », explique-t-il. En avril 2017, Jacques Perrin, Virginie Ledoyen, Ludivine Sagnier et Jonathan Zaccaï rejoignent la distribution. Maleaume Paquin est mentionné pour interpréter le rôle de Rémi, c’est « le quinzième enfant que j’ai rencontré au cours du casting et j’ai tout de suite eu un coup de cœur pour lui. Je m’attendais à une recherche longue, difficile, et j’ai été perturbé de l’avoir trouvé si vite. J’ai vu environ quatre cents autres enfants avant de me décider : je voulais être absolument sûr de mon choix. Serait-il capable de tenir physiquement durant les treize semaines que durerait le tournage ? Je l’ai fait revenir plusieurs fois en lui donnant des scènes différentes et de plus en plus difficiles à jouer. Il était super et j’ai compris qu’il était solide », raconte le réalisateur. 
+</t>
         </is>
       </c>
     </row>
@@ -704,7 +720,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R%C3%A9mi_sans_famille_(film)</t>
+          <t>Rémi_sans_famille_(film)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -719,13 +735,167 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 18 avril 2017, Antoine Blossier et son équipe commencent le tournage à Penne, Cordes-sur-Ciel, Castelnau-de-Montmiral, Albi, Toulouse, Castelnaudary  en région Occitanie et sur l’Aubrac pour son décor  (paysage, lacs, cascades, en particulier la cascade du Déroc) avant de remonter, en mai, à Paris et au studio d'Épinay à Épinay-sur-Seine jusqu’au 7 juillet 2017. Les membres de toutes les équipes ont signé un contrat dans lequel ils se sont « engagés à ne rien dire sur le film », avoue l'un d'entre eux, et c’est évident que toutes demandes de reportage sur les lieux de tournage sont refusées afin de protéger décors et costumes avant la sortie du film.
+Les effets visuels ont lieu au studio Digital District.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rémi_sans_famille_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9mi_sans_famille_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour son film, Antoine Blossier souhaitait que la musique soit « symphonique et thématique, à l'image des grandes compositions françaises comme celles de Michel Legrand ou Vladimir Cosma, tout en s'imprégnant des sonorités de John Williams et de Danny Elfman ». Il compte sur Romaric Laurence, son compositeur fidèle de tous ses longs métrages. Ce dernier a travaillé avec les femmes du Chœur de Radio France au studio de la Seine à Paris et les Petits Chanteurs à la croix de bois pour se servir de leur voix d’ange dans le film.
+Lors d'une scène, le personnage interprété par Daniel Auteuil joue au violon un extrait du célèbre Concerto pour violon no 2 en mi mineur, opus 64 de Felix Mendelssohn.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rémi_sans_famille_(film)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9mi_sans_famille_(film)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Festivals et sorties</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rémi sans famille est présenté le 30 septembre 2018 en avant-première au festival Première dans les cinémas Pathé et Gaumont. Il est également sélectionné et présenté le 17 novembre 2018 au festival du film de Sarlat,. En avril 2017, la sortie nationale a pour date le 28 septembre 2018. Il repousse au 12 décembre 2018.
+Quant aux pays francophones, le film est prévu, comme en France, le 12 décembre 2018 en Belgique et en Suisse romande. Le 8 février 2019 au Québec.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rémi_sans_famille_(film)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9mi_sans_famille_(film)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour CNews, c'est un « défi réussi » car « l'image est soignée, les paysages somptueux, la musique symphonique et le casting à la hauteur ». Le Journal du dimanche estime que le film est une « adaptation ambitieuse » et un « joli conte de fées pour Noël » qui représente la « crème du cinéma français », avec « de magnifiques paysages, de beaux costumes, des effets visuels dignes d'une production américaine, des enfants qui jouent bien la comédie ». Le Parisien juge le film « très prenant » car « joliment mis en scène », « habité par une musique envoûtante très présente » et tourné dans les « magnifiques paysages de l'Aubrac et du Tarn ». Paris Match résume sa critique de la façon suivante : « Amour, tendresse, émotion et animaux rigolos (Joli-cœur, le petit singe !) : tous les ingrédients du roman sont dans ce film qui ne fait heureusement pas l'impasse sur la noirceur du texte d'Hector Malot. » 
+Dans L'Express, Christophe Carrière est nettement moins convaincu : « Cette fois, le périple tragique et initiatique de Rémi, abandonné à sa naissance, recueilli par un couple de miséreux avant d'être vendu à un vieux saltimbanque affectueux, est traité de la manière la plus mièvre qui soit. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rémi_sans_famille_(film)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9mi_sans_famille_(film)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Nomination et sélection
-Festival du film de Sarlat 2018 : « Sélection officielle »[15]</t>
+Festival du film de Sarlat 2018 : « Sélection officielle »</t>
         </is>
       </c>
     </row>
